--- a/rutas.xlsx
+++ b/rutas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\P_SCRIP\Em-ordenes-serv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Luis\Desktop\automaztizacion_alicorp\facturas_automatizacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED5DD5-76A7-498B-B9FF-B04CD71937EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5D7AB8-EED9-445A-8323-9F3B803E17B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="795" windowWidth="24615" windowHeight="12855" xr2:uid="{8FC81B8C-2535-4FBF-B993-6E71C0203166}"/>
+    <workbookView xWindow="28680" yWindow="4500" windowWidth="20730" windowHeight="11310" xr2:uid="{8FC81B8C-2535-4FBF-B993-6E71C0203166}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t xml:space="preserve">Archivo de descarga del Excel con los datos extraidos </t>
   </si>
   <si>
-    <t>C:\Users\user\Desktop\P_SCRIP\Em-ordenes-serv\EPS\</t>
-  </si>
-  <si>
-    <t>C:\Users\user\Desktop\P_SCRIP\Em-ordenes-serv\11 Generado\</t>
+    <t>EPS\</t>
+  </si>
+  <si>
+    <t>11 Generado\</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="42.75">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
